--- a/Precio Dolar.xlsx
+++ b/Precio Dolar.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,48 +545,6 @@
         <v>116.31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>09:01 AM</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>116.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>09:01 AM</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>116.31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Precio Dolar.xlsx
+++ b/Precio Dolar.xlsx
@@ -506,43 +506,41 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>09:01 AM</t>
-        </is>
-      </c>
+          <t>31/05/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>116.31</v>
-      </c>
+        <v>97.31</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>Date unavailable (no API data)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>09:01 AM</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>116.31</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>
